--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -430,6 +430,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -449,16 +455,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -476,7 +476,7 @@
     <cellStyle name="Accent6" xfId="2" builtinId="49"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFC00000"/>
@@ -536,21 +536,6 @@
           <bgColor rgb="FFC00000"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFC00000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.499984740745262"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="7" tint="-0.24994659260841701"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2161,21 +2146,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="12" t="s">
         <v>2</v>
       </c>
@@ -2184,10 +2169,10 @@
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="14" t="s">
         <v>8</v>
       </c>
@@ -2196,10 +2181,10 @@
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="22"/>
       <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
@@ -2208,10 +2193,10 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="15" t="s">
         <v>11</v>
       </c>
@@ -2233,7 +2218,7 @@
   <dimension ref="A1:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,244 +2319,244 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="26">
+      <c r="B5" s="27">
         <v>8</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="F5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27">
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+      <c r="U5" s="19">
         <f>E5-SUM(G5:T5)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27" t="s">
+    <row r="6" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="28"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="19">
         <v>2</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="F6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+      <c r="U6" s="19">
         <f>E6-SUM(G6:T6)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="27" t="s">
+    <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="19">
         <v>3</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="27"/>
-      <c r="U7" s="27">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="19">
         <f t="shared" ref="U7:U15" si="0">E7-SUM(G7:T7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="s">
+    <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D8" s="27" t="s">
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="19">
         <v>0</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="27"/>
-      <c r="S8" s="27"/>
-      <c r="T8" s="27"/>
-      <c r="U8" s="27">
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+      <c r="U8" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="s">
+    <row r="9" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="19">
         <v>1</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="27"/>
-      <c r="S9" s="27"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27">
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27" t="s">
+    <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="27" t="s">
+      <c r="D10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="19">
         <v>2</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27">
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="s">
+    <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="19">
         <v>0</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="27"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="27"/>
-      <c r="S11" s="27"/>
-      <c r="T11" s="27"/>
-      <c r="U11" s="27">
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2592,7 +2577,7 @@
       <c r="E12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="2"/>
@@ -2609,7 +2594,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="27">
+      <c r="U12" s="19">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2624,7 +2609,7 @@
       <c r="E13" s="2">
         <v>2</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="2"/>
@@ -2641,7 +2626,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="27">
+      <c r="U13" s="19">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2656,7 +2641,7 @@
       <c r="E14" s="2">
         <v>8</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G14" s="2"/>
@@ -2673,7 +2658,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="27">
+      <c r="U14" s="19">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -2688,7 +2673,7 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="19" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="2"/>
@@ -2705,7 +2690,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="27">
+      <c r="U15" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2782,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U16" s="2">
-        <f t="shared" ref="U12:U16" si="2">E16-SUM(G16:T16)</f>
+        <f t="shared" ref="U16" si="2">E16-SUM(G16:T16)</f>
         <v>22</v>
       </c>
     </row>

--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nevidjen\Documents\GitHub\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\MasterAudioTechnologyFunctions\Documentation and designs\Sprint_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -596,6 +596,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -627,7 +628,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -999,7 +1000,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1036,7 +1037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308624616"/>
@@ -1092,6 +1093,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1116,7 +1118,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="sr-Latn-RS"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1147,7 +1149,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="sr-Latn-RS"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308619040"/>
@@ -1198,7 +1200,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="sr-Latn-RS"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1246,7 +1248,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="sr-Latn-RS"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1912,23 +1914,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1964,23 +1949,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2217,13 +2185,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -3002,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -596,7 +596,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -628,7 +627,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -891,28 +890,28 @@
                   <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1000,7 +999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1037,7 +1036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308624616"/>
@@ -1093,7 +1092,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1118,7 +1116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="sr-Latn-RS"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1149,7 +1147,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="sr-Latn-RS"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308619040"/>
@@ -1200,7 +1198,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="sr-Latn-RS"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1248,7 +1246,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="sr-Latn-RS"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1914,6 +1912,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1949,6 +1964,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2185,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2338,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="19"/>
@@ -2346,7 +2378,9 @@
       <c r="J6" s="19"/>
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
+      <c r="M6" s="19">
+        <v>2</v>
+      </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
       <c r="P6" s="19"/>
@@ -2356,7 +2390,7 @@
       <c r="T6" s="19"/>
       <c r="U6" s="19">
         <f>E6-SUM(G6:T6)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2380,7 +2414,9 @@
       <c r="J7" s="19"/>
       <c r="K7" s="19"/>
       <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
       <c r="N7" s="19"/>
       <c r="O7" s="19"/>
       <c r="P7" s="19"/>
@@ -2390,7 +2426,7 @@
       <c r="T7" s="19"/>
       <c r="U7" s="19">
         <f t="shared" ref="U7:U15" si="0">E7-SUM(G7:T7)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2704,7 +2740,7 @@
       </c>
       <c r="M16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="2">
         <f t="shared" si="1"/>
@@ -2736,7 +2772,7 @@
       </c>
       <c r="U16" s="2">
         <f t="shared" ref="U16" si="2">E16-SUM(G16:T16)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2847,35 +2883,35 @@
       </c>
       <c r="M18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="T18" s="2">
         <f>S18-SUM(T5:T15)</f>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="U18" s="10"/>
     </row>
@@ -2970,7 +3006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -911,7 +911,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>19</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2406,7 +2406,7 @@
         <v>3</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G7" s="19"/>
       <c r="H7" s="19"/>
@@ -2423,10 +2423,12 @@
       <c r="Q7" s="19"/>
       <c r="R7" s="19"/>
       <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
+      <c r="T7" s="19">
+        <v>2</v>
+      </c>
       <c r="U7" s="19">
         <f t="shared" ref="U7:U15" si="0">E7-SUM(G7:T7)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2476,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="19"/>
@@ -2491,10 +2493,12 @@
       <c r="Q9" s="19"/>
       <c r="R9" s="19"/>
       <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
+      <c r="T9" s="19">
+        <v>1</v>
+      </c>
       <c r="U9" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2510,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G10" s="19"/>
       <c r="H10" s="19"/>
@@ -2525,10 +2529,12 @@
       <c r="Q10" s="19"/>
       <c r="R10" s="19"/>
       <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
+      <c r="T10" s="19">
+        <v>2</v>
+      </c>
       <c r="U10" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="20" customFormat="1" x14ac:dyDescent="0.25">
@@ -2582,7 +2588,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -2597,10 +2603,12 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
+      <c r="T12" s="2">
+        <v>3</v>
+      </c>
       <c r="U12" s="19">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -2641,12 +2649,14 @@
       <c r="C14" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="E14" s="2">
         <v>8</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -2661,10 +2671,12 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
+      <c r="T14" s="2">
+        <v>8</v>
+      </c>
       <c r="U14" s="19">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -2673,12 +2685,14 @@
       <c r="C15" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2768,11 +2782,11 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ref="U16" si="2">E16-SUM(G16:T16)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2911,7 +2925,7 @@
       </c>
       <c r="T18" s="2">
         <f>S18-SUM(T5:T15)</f>
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="U18" s="10"/>
     </row>
@@ -3006,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Name</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Implement select button for track</t>
-  </si>
-  <si>
-    <t>To do</t>
   </si>
   <si>
     <t>Implement adding new track to timeline</t>
@@ -911,7 +908,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2217,8 +2214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2541,7 +2538,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>6</v>
@@ -2573,13 +2570,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12" s="29">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -2615,14 +2612,16 @@
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="2">
         <v>2</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -2637,17 +2636,19 @@
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
+      <c r="T13" s="2">
+        <v>2</v>
+      </c>
       <c r="U13" s="19">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -2683,7 +2684,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2782,11 +2783,11 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ref="U16" si="2">E16-SUM(G16:T16)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2925,7 +2926,7 @@
       </c>
       <c r="T18" s="2">
         <f>S18-SUM(T5:T15)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U18" s="10"/>
     </row>
@@ -3020,7 +3021,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>

--- a/Documentation and designs/Sprint_info/Sprint4.xlsx
+++ b/Documentation and designs/Sprint_info/Sprint4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Roster" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="53">
   <si>
     <t>Name</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Implement single track serial play</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
   <si>
     <t>Implement multiple track paralel play</t>
@@ -908,7 +905,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2214,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2394,7 +2391,7 @@
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="19" t="s">
         <v>6</v>
@@ -2432,7 +2429,7 @@
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>6</v>
@@ -2466,7 +2463,7 @@
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="19" t="s">
         <v>9</v>
@@ -2502,7 +2499,7 @@
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="19" t="s">
         <v>6</v>
@@ -2538,7 +2535,7 @@
       <c r="A11" s="27"/>
       <c r="B11" s="27"/>
       <c r="C11" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="19" t="s">
         <v>6</v>
@@ -2570,13 +2567,13 @@
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="29">
         <v>13</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
@@ -2612,7 +2609,7 @@
       <c r="A13" s="30"/>
       <c r="B13" s="30"/>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>9</v>
@@ -2648,7 +2645,7 @@
       <c r="A14" s="30"/>
       <c r="B14" s="30"/>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
@@ -2684,7 +2681,7 @@
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -2693,7 +2690,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -2708,10 +2705,12 @@
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
+      <c r="T15" s="2">
+        <v>1</v>
+      </c>
       <c r="U15" s="19">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2783,11 +2782,11 @@
       </c>
       <c r="T16" s="2">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U16" s="2">
         <f t="shared" ref="U16" si="2">E16-SUM(G16:T16)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2926,7 +2925,7 @@
       </c>
       <c r="T18" s="2">
         <f>S18-SUM(T5:T15)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" s="10"/>
     </row>
@@ -3021,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
